--- a/reports/air_raw_data/quantity.xlsx
+++ b/reports/air_raw_data/quantity.xlsx
@@ -26777,7 +26777,7 @@
         </is>
       </c>
       <c r="F941" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="942">
@@ -27365,7 +27365,7 @@
         </is>
       </c>
       <c r="F962" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963">
